--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_4_2.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_4_2.xlsx
@@ -522,657 +522,657 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999991831398907</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9989975816609687</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999456753045685</v>
+        <v>0.9999972781710764</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999729941028336</v>
+        <v>0.9999965427991057</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999686695077529</v>
+        <v>0.999996920737708</v>
       </c>
       <c r="G2" t="n">
-        <v>7.62503056016972e-06</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0009357135184060382</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I2" t="n">
-        <v>1.159705142850183e-05</v>
+        <v>2.216033013719466e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>3.064728491111034e-05</v>
+        <v>2.906597063297065e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>2.112216816980609e-05</v>
+        <v>2.561315038508266e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001769675803058655</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0027613457878668</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9999346511912561</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002878901994830086</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P2" t="n">
-        <v>65.56814845517545</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q2" t="n">
-        <v>91.16454077740764</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_1</t>
+          <t>model_4_2_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998953585680876</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9985482658909014</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9973757830810526</v>
+        <v>0.9999972781710764</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999557520729814</v>
+        <v>0.9999965427991057</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9995472800035481</v>
+        <v>0.999996920737708</v>
       </c>
       <c r="G3" t="n">
-        <v>9.767818346217951e-05</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001355130067081008</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0005602089128491603</v>
+        <v>2.216033013719466e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>5.021417424889969e-05</v>
+        <v>2.906597063297065e-06</v>
       </c>
       <c r="K3" t="n">
-        <v>0.00030521154354903</v>
+        <v>2.561315038508266e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0005256606577657777</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M3" t="n">
-        <v>0.009883227380880171</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9991628685447012</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01030397683158533</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P3" t="n">
-        <v>60.46766465031857</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q3" t="n">
-        <v>86.06405697255077</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_2</t>
+          <t>model_4_2_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998865391537617</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9985219897297041</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9971459372150382</v>
+        <v>0.9999972781710764</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999536134111398</v>
+        <v>0.9999965427991057</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9995090896904248</v>
+        <v>0.999996920737708</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0001059107196078977</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001379657710168522</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0006092756274919672</v>
+        <v>2.216033013719466e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>5.264120632960286e-05</v>
+        <v>2.906597063297065e-06</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0003309584169107851</v>
+        <v>2.561315038508266e-06</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0005416144304998484</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0102912933884861</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9990923132300935</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01072941505394813</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P4" t="n">
-        <v>60.30582817321819</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q4" t="n">
-        <v>85.90222049545039</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_3</t>
+          <t>model_4_2_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998828370451947</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9985106603888503</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9970480761191339</v>
+        <v>0.9999972781710764</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999529775403583</v>
+        <v>0.9999965427991057</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9994930606684186</v>
+        <v>0.999996920737708</v>
       </c>
       <c r="G5" t="n">
-        <v>0.000109366475451435</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001390233152554966</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0006301666817912114</v>
+        <v>2.216033013719466e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>5.336281586862426e-05</v>
+        <v>2.906597063297065e-06</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0003417647488299178</v>
+        <v>2.561315038508266e-06</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0005474312345049694</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01045784277236156</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9990626963615572</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01090305478989993</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P5" t="n">
-        <v>60.24161231010723</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q5" t="n">
-        <v>85.83800463233943</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_4</t>
+          <t>model_4_2_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998828009016321</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C6" t="n">
-        <v>0.99851044569021</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D6" t="n">
-        <v>0.997048135555456</v>
+        <v>0.9999972781710764</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999527789851468</v>
+        <v>0.9999965427991057</v>
       </c>
       <c r="F6" t="n">
-        <v>0.999492902964441</v>
+        <v>0.999996920737708</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0001094002138806417</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00139043356431148</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0006301539935270924</v>
+        <v>2.216033013719466e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>5.358814362200234e-05</v>
+        <v>2.906597063297065e-06</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0003418710685745473</v>
+        <v>2.561315038508266e-06</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0005481216383719237</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01045945571627136</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9990624072130565</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01090473640017122</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P6" t="n">
-        <v>60.24099542589003</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q6" t="n">
-        <v>85.83738774812224</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_5</t>
+          <t>model_4_2_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998815066549884</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9985066742415712</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9970135506173265</v>
+        <v>0.9999972781710764</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999526306589244</v>
+        <v>0.9999965427991057</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9994873024713176</v>
+        <v>0.999996920737708</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0001106083363115997</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001393954046068253</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0006375370686267902</v>
+        <v>2.216033013719466e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>5.375646967208169e-05</v>
+        <v>2.906597063297065e-06</v>
       </c>
       <c r="K7" t="n">
-        <v>0.000345646769149436</v>
+        <v>2.561315038508266e-06</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0005502481294129976</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01051704979124848</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9990520532399074</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01096478237415628</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P7" t="n">
-        <v>60.21903019638776</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q7" t="n">
-        <v>85.81542251861997</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_6</t>
+          <t>model_4_2_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998797619651008</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9985016837797736</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9969671448166159</v>
+        <v>0.9999972781710764</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999523894826964</v>
+        <v>0.9999965427991057</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9994797522949108</v>
+        <v>0.999996920737708</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0001122369277387445</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001398612423100455</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I8" t="n">
-        <v>0.000647443621312388</v>
+        <v>2.216033013719466e-06</v>
       </c>
       <c r="J8" t="n">
-        <v>5.403016532190623e-05</v>
+        <v>2.906597063297065e-06</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0003507368933171471</v>
+        <v>2.561315038508266e-06</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0005533467816145856</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01059419311409531</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N8" t="n">
-        <v>0.999038095720806</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0110452098479654</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P8" t="n">
-        <v>60.18979698958789</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q8" t="n">
-        <v>85.7861893118201</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_7</t>
+          <t>model_4_2_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998796519420852</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9985011876911538</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9969640045971851</v>
+        <v>0.9999972781710764</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999524137857035</v>
+        <v>0.9999965427991057</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9994792755748813</v>
+        <v>0.999996920737708</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0001123396293942976</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001399075500051253</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0006481139846884899</v>
+        <v>2.216033013719466e-06</v>
       </c>
       <c r="J9" t="n">
-        <v>5.400258537589576e-05</v>
+        <v>2.906597063297065e-06</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0003510582850321928</v>
+        <v>2.561315038508266e-06</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0005529632798566941</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01059903907881736</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N9" t="n">
-        <v>0.9990372155366813</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0110502621154382</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P9" t="n">
-        <v>60.1879677396604</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q9" t="n">
-        <v>85.78436006189261</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_8</t>
+          <t>model_4_2_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998783044149802</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9984968372480773</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9969279939779495</v>
+        <v>0.9999972781710764</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999522583894285</v>
+        <v>0.9999965427991057</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9994734434105318</v>
+        <v>0.999996920737708</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0001135974867972027</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0014031364477008</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0006558014093473915</v>
+        <v>2.216033013719466e-06</v>
       </c>
       <c r="J10" t="n">
-        <v>5.417893478165866e-05</v>
+        <v>2.906597063297065e-06</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0003549901720645251</v>
+        <v>2.561315038508266e-06</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0005548809792972523</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01065821217640195</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9990264353198413</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01111195433429216</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P10" t="n">
-        <v>60.16569835037201</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q10" t="n">
-        <v>85.76209067260422</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_9</t>
+          <t>model_4_2_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998746006033401</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C11" t="n">
-        <v>0.998486263585554</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D11" t="n">
-        <v>0.996830792513368</v>
+        <v>0.9999972781710764</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999515089598812</v>
+        <v>0.9999965427991057</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9994574232476714</v>
+        <v>0.999996920737708</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0001170548323846848</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001413006497536092</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I11" t="n">
-        <v>0.000676551647792766</v>
+        <v>2.216033013719466e-06</v>
       </c>
       <c r="J11" t="n">
-        <v>5.502941498291919e-05</v>
+        <v>2.906597063297065e-06</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0003657905313878425</v>
+        <v>2.561315038508266e-06</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0005616428289879839</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01081918815737506</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9989968048267208</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01127978339604152</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P11" t="n">
-        <v>60.10573616017884</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q11" t="n">
-        <v>85.70212848241104</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_11</t>
+          <t>model_4_2_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9998736209610383</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9984834002685824</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9968028512487923</v>
+        <v>0.9999972781710764</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999517191468689</v>
+        <v>0.9999965427991057</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9994531763560401</v>
+        <v>0.999996920737708</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0001179692854721428</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001415679278244052</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0006825164540321318</v>
+        <v>2.216033013719466e-06</v>
       </c>
       <c r="J12" t="n">
-        <v>5.479088706222817e-05</v>
+        <v>2.906597063297065e-06</v>
       </c>
       <c r="K12" t="n">
-        <v>0.00036865367054718</v>
+        <v>2.561315038508266e-06</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0005621236304738205</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01086136664845372</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9989889676883061</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01132375751280691</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P12" t="n">
-        <v>60.09017251997913</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q12" t="n">
-        <v>85.68656484221134</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_10</t>
+          <t>model_4_2_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9998736109011198</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9984833469502078</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9968033019983996</v>
+        <v>0.9999972781710764</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999515826625994</v>
+        <v>0.9999965427991057</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9994531328487489</v>
+        <v>0.999996920737708</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0001179786759643607</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001415729048606278</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0006824202295372527</v>
+        <v>2.216033013719466e-06</v>
       </c>
       <c r="J13" t="n">
-        <v>5.494577442867602e-05</v>
+        <v>2.906597063297065e-06</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0003686830019829644</v>
+        <v>2.561315038508266e-06</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0005625365482502402</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0108617989285551</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N13" t="n">
-        <v>0.9989888872089585</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01132420819596715</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P13" t="n">
-        <v>60.09001332399091</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q13" t="n">
-        <v>85.68640564622311</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9998716728759343</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9984779659550391</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9967500808799913</v>
+        <v>0.9999972781710764</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999516307421316</v>
+        <v>0.9999965427991057</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9994447470908221</v>
+        <v>0.999996920737708</v>
       </c>
       <c r="G14" t="n">
-        <v>0.000119787737405682</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001420751971397911</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0006937816930919226</v>
+        <v>2.216033013719466e-06</v>
       </c>
       <c r="J14" t="n">
-        <v>5.489121200810705e-05</v>
+        <v>2.906597063297065e-06</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0003743364525500149</v>
+        <v>2.561315038508266e-06</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0005652768707327524</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01094475844437336</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N14" t="n">
-        <v>0.9989733830074741</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01141069947012366</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P14" t="n">
-        <v>60.05957847281216</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q14" t="n">
-        <v>85.65597079504437</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_20</t>
+          <t>model_4_2_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9998710252555449</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9984762334093992</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9967312155290082</v>
+        <v>0.9999972781710764</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999518498134625</v>
+        <v>0.9999965427991057</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9994419446191164</v>
+        <v>0.999996920737708</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0001203922626118544</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001422369226702861</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0006978090041302885</v>
+        <v>2.216033013719466e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>5.464260180809169e-05</v>
+        <v>2.906597063297065e-06</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0003762258029691901</v>
+        <v>2.561315038508266e-06</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0005654239998582045</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01097234079911185</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9989682020443595</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01143945606280671</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P15" t="n">
-        <v>60.04951058235143</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q15" t="n">
-        <v>85.64590290458364</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_21</t>
+          <t>model_4_2_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9998709668194423</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9984760738133603</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9967296504930639</v>
+        <v>0.9999972781710764</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999518437955196</v>
+        <v>0.9999965427991057</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9994416917700699</v>
+        <v>0.999996920737708</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0001204468101485821</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.001422518202599641</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0006981431026869103</v>
+        <v>2.216033013719466e-06</v>
       </c>
       <c r="J16" t="n">
-        <v>5.464943119091504e-05</v>
+        <v>2.906597063297065e-06</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0003763962669389127</v>
+        <v>2.561315038508266e-06</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0005655198866162524</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01097482620129276</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N16" t="n">
-        <v>0.9989677345555386</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01144204727370396</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P16" t="n">
-        <v>60.04860462407756</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q16" t="n">
-        <v>85.64499694630976</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_22</t>
+          <t>model_4_2_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9998709668194423</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9984760738133603</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9967296504930639</v>
+        <v>0.9999972781710764</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999518437955196</v>
+        <v>0.9999965427991057</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9994416917700699</v>
+        <v>0.999996920737708</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0001204468101485821</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.001422518202599641</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0006981431026869103</v>
+        <v>2.216033013719466e-06</v>
       </c>
       <c r="J17" t="n">
-        <v>5.464943119091504e-05</v>
+        <v>2.906597063297065e-06</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0003763962669389127</v>
+        <v>2.561315038508266e-06</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0005655198866162524</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01097482620129276</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N17" t="n">
-        <v>0.9989677345555386</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01144204727370396</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P17" t="n">
-        <v>60.04860462407756</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q17" t="n">
-        <v>85.64499694630976</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_23</t>
+          <t>model_4_2_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9998709668194423</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9984760738133603</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9967296504930639</v>
+        <v>0.9999972781710764</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999518437955196</v>
+        <v>0.9999965427991057</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9994416917700699</v>
+        <v>0.999996920737708</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0001204468101485821</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001422518202599641</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0006981431026869103</v>
+        <v>2.216033013719466e-06</v>
       </c>
       <c r="J18" t="n">
-        <v>5.464943119091504e-05</v>
+        <v>2.906597063297065e-06</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0003763962669389127</v>
+        <v>2.561315038508266e-06</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0005655198866162524</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01097482620129276</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N18" t="n">
-        <v>0.9989677345555386</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01144204727370396</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P18" t="n">
-        <v>60.04860462407756</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q18" t="n">
-        <v>85.64499694630976</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_24</t>
+          <t>model_4_2_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9998709668194423</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9984760738133603</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9967296504930639</v>
+        <v>0.9999972781710764</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999518437955196</v>
+        <v>0.9999965427991057</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9994416917700699</v>
+        <v>0.999996920737708</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0001204468101485821</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.001422518202599641</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0006981431026869103</v>
+        <v>2.216033013719466e-06</v>
       </c>
       <c r="J19" t="n">
-        <v>5.464943119091504e-05</v>
+        <v>2.906597063297065e-06</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0003763962669389127</v>
+        <v>2.561315038508266e-06</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0005655198866162524</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01097482620129276</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N19" t="n">
-        <v>0.9989677345555386</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01144204727370396</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P19" t="n">
-        <v>60.04860462407756</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q19" t="n">
-        <v>85.64499694630976</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_18</t>
+          <t>model_4_2_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9998709229929484</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9984758950973899</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9967289424834832</v>
+        <v>0.9999972781710764</v>
       </c>
       <c r="E20" t="n">
-        <v>0.999951751700496</v>
+        <v>0.9999965427991057</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9994415021626959</v>
+        <v>0.999996920737708</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0001204877202568908</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.001422685026113319</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0006982942461669634</v>
+        <v>2.216033013719466e-06</v>
       </c>
       <c r="J20" t="n">
-        <v>5.475394400941539e-05</v>
+        <v>2.906597063297065e-06</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0003765240950881894</v>
+        <v>2.561315038508266e-06</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0005658495878774018</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0109766898588277</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N20" t="n">
-        <v>0.9989673839435875</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O20" t="n">
-        <v>0.01144399027099846</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P20" t="n">
-        <v>60.04792543361643</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q20" t="n">
-        <v>85.64431775584863</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_17</t>
+          <t>model_4_2_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9998709111884165</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9984758810864612</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9967290692816085</v>
+        <v>0.9999972781710764</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999516672004577</v>
+        <v>0.9999965427991057</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9994414511184319</v>
+        <v>0.999996920737708</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0001204987392692275</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.001422698104700163</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I21" t="n">
-        <v>0.000698267177733928</v>
+        <v>2.216033013719466e-06</v>
       </c>
       <c r="J21" t="n">
-        <v>5.48498377592839e-05</v>
+        <v>2.906597063297065e-06</v>
       </c>
       <c r="K21" t="n">
-        <v>0.000376558507746606</v>
+        <v>2.561315038508266e-06</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0005661091579024883</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01097719177518674</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N21" t="n">
-        <v>0.9989672895073323</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01144451355497602</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P21" t="n">
-        <v>60.04774253516867</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q21" t="n">
-        <v>85.64413485740087</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_19</t>
+          <t>model_4_2_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.999870900699416</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9984758566509034</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9967281785950243</v>
+        <v>0.9999972781710764</v>
       </c>
       <c r="E22" t="n">
-        <v>0.999951780773728</v>
+        <v>0.9999965427991057</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9994414056897106</v>
+        <v>0.999996920737708</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0001205085302908271</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.001422720914220793</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0006984573184800728</v>
+        <v>2.216033013719466e-06</v>
       </c>
       <c r="J22" t="n">
-        <v>5.472095063680134e-05</v>
+        <v>2.906597063297065e-06</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0003765891345584372</v>
+        <v>2.561315038508266e-06</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0005657810264230966</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01097763773727422</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N22" t="n">
-        <v>0.9989672055953278</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01144497850259283</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P22" t="n">
-        <v>60.04758003348773</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q22" t="n">
-        <v>85.64397235571994</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_16</t>
+          <t>model_4_2_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9998705639411039</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9984749602704579</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9967204751535749</v>
+        <v>0.9999972781710764</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999514988242433</v>
+        <v>0.9999965427991057</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9994399487406023</v>
+        <v>0.999996920737708</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0001208228793932213</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001423557646020178</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I23" t="n">
-        <v>0.000700101822990514</v>
+        <v>2.216033013719466e-06</v>
       </c>
       <c r="J23" t="n">
-        <v>5.504091727728234e-05</v>
+        <v>2.906597063297065e-06</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0003775713701338982</v>
+        <v>2.561315038508266e-06</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0005671910609581763</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0109919461149162</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N23" t="n">
-        <v>0.9989645115288308</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01145989601749345</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P23" t="n">
-        <v>60.04236978289354</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q23" t="n">
-        <v>85.63876210512575</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_15</t>
+          <t>model_4_2_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9998704807819481</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9984747273946329</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9967184414339277</v>
+        <v>0.9999972781710764</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999514539410248</v>
+        <v>0.9999965427991057</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9994395889762877</v>
+        <v>0.999996920737708</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0001209005048148978</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001423775025380707</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0007005359745518192</v>
+        <v>2.216033013719466e-06</v>
       </c>
       <c r="J24" t="n">
-        <v>5.509185240369914e-05</v>
+        <v>2.906597063297065e-06</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0003778139134777592</v>
+        <v>2.561315038508266e-06</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0005674913765300752</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01099547656151828</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N24" t="n">
-        <v>0.9989638462555845</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01146357676251641</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P24" t="n">
-        <v>60.04108524975499</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q24" t="n">
-        <v>85.63747757198719</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_14</t>
+          <t>model_4_2_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9998704705509326</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9984746912505869</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D25" t="n">
-        <v>0.996718243702979</v>
+        <v>0.9999972781710764</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999514385914426</v>
+        <v>0.9999965427991057</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9994395447515768</v>
+        <v>0.999996920737708</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0001209100550187688</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001423808764261213</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0007005781854830163</v>
+        <v>2.216033013719466e-06</v>
       </c>
       <c r="J25" t="n">
-        <v>5.510927167377793e-05</v>
+        <v>2.906597063297065e-06</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0003778437285783971</v>
+        <v>2.561315038508266e-06</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0005676112452829247</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01099591083170325</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N25" t="n">
-        <v>0.9989637644074607</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01146402952048222</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P25" t="n">
-        <v>60.0409272714784</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q25" t="n">
-        <v>85.6373195937106</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_13</t>
+          <t>model_4_2_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.999870389467612</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9984744506727408</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9967161568332779</v>
+        <v>0.9999972781710764</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999514143636434</v>
+        <v>0.9999965427991057</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9994391939569468</v>
+        <v>0.999996920737708</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0001209857427394281</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001424033333120312</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I26" t="n">
-        <v>0.000701023683337286</v>
+        <v>2.216033013719466e-06</v>
       </c>
       <c r="J26" t="n">
-        <v>5.51367662711019e-05</v>
+        <v>2.906597063297065e-06</v>
       </c>
       <c r="K26" t="n">
-        <v>0.000378080224804194</v>
+        <v>2.561315038508266e-06</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0005678511318194943</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01099935192361023</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N26" t="n">
-        <v>0.9989631157408958</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01146761710679573</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P26" t="n">
-        <v>60.03967569581927</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q26" t="n">
-        <v>85.63606801805147</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
   </sheetData>
